--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2186839.317113966</v>
+        <v>2262368.986778772</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97.12166249623246</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>15.30226792675285</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>123.6064608052456</v>
       </c>
       <c r="F4" t="n">
-        <v>114.3028656524357</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>75.51862566593917</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>62.62994551992831</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>122.9755501377538</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>192.5627265154904</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>100.6519566793912</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>118.8460297402135</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>62.95369569505517</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.2530778377178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.34769566476288</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>30.15451601838717</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>36.88234405457732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>20.58581884348368</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7178027211458</v>
+        <v>106.7359263397712</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>125.2992784271096</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>200.4989185381636</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>169.827716759979</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>12.25677756260502</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>149.079966771951</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>80.34442404789031</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>59.01585011841155</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>207.4201985979108</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>122.285603625497</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1520.249612705074</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1134.461360106829</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>723.4754553172218</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>305.5116472154086</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1978.089625183391</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1625.320969913277</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.855211652197</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.855211652197</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629043</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>338.4002221349974</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D4" t="n">
-        <v>338.4002221349974</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E4" t="n">
-        <v>338.4002221349974</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1426.815961912944</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C5" t="n">
-        <v>1426.815961912944</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1426.815961912944</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.723949158869</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.723949158869</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888755</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.955293888755</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1426.815961912944</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426.3476790823676</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>426.3476790823676</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>426.3476790823676</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>426.3476790823676</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>426.3476790823676</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y7" t="n">
-        <v>426.3476790823676</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1310.651480925463</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1310.651480925463</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>952.3857823187125</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>566.5975297204682</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>155.6116249308606</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2522.073906861631</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1697.251320989585</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>664.5393925952676</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>450.2509694134303</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5042,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.92115703528</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5507,25 +5509,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5534,25 +5536,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,22 +5594,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.5986022327736</v>
+        <v>446.7290208898085</v>
       </c>
       <c r="C19" t="n">
-        <v>100.5986022327736</v>
+        <v>277.7928379619016</v>
       </c>
       <c r="D19" t="n">
-        <v>100.5986022327736</v>
+        <v>127.6761985495658</v>
       </c>
       <c r="E19" t="n">
-        <v>100.5986022327736</v>
+        <v>127.6761985495658</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>127.6761985495658</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>127.6761985495658</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>127.6761985495658</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>674.7185717878258</v>
       </c>
       <c r="X19" t="n">
-        <v>503.0396462065435</v>
+        <v>446.7290208898085</v>
       </c>
       <c r="Y19" t="n">
-        <v>282.2470670630133</v>
+        <v>446.7290208898085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,19 +5743,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5929,31 +5931,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R22" t="n">
-        <v>1461.661377573481</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S22" t="n">
-        <v>1261.741367489033</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="T22" t="n">
-        <v>1037.955952278539</v>
+        <v>1275.130855347412</v>
       </c>
       <c r="U22" t="n">
-        <v>748.827313492097</v>
+        <v>986.0022165609698</v>
       </c>
       <c r="V22" t="n">
-        <v>494.1428252862102</v>
+        <v>986.0022165609698</v>
       </c>
       <c r="W22" t="n">
-        <v>494.1428252862102</v>
+        <v>696.5850465240092</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>468.5954956259918</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,7 +6004,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6251,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6414,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>545.9992215018333</v>
+        <v>1080.10709002541</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>790.6899199884497</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6448,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3540.192194764783</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.9798268587604</v>
+        <v>1117.347795643215</v>
       </c>
       <c r="C31" t="n">
-        <v>527.0436439308535</v>
+        <v>948.4116127153081</v>
       </c>
       <c r="D31" t="n">
-        <v>376.9270045185177</v>
+        <v>798.2949733029724</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>650.3818797205793</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>503.4919322226689</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>335.3166105424895</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>985.396996895721</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>695.9798268587604</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X31" t="n">
-        <v>695.9798268587604</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.9798268587604</v>
+        <v>1298.996260473455</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,7 +6715,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>3928.626224708974</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>3759.690041781067</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.373122315499</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1327.373122315499</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U34" t="n">
-        <v>1038.244483529058</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V34" t="n">
-        <v>783.5599953231707</v>
+        <v>4848.473989617722</v>
       </c>
       <c r="W34" t="n">
-        <v>494.1428252862101</v>
+        <v>4559.056819580761</v>
       </c>
       <c r="X34" t="n">
-        <v>266.1532743881928</v>
+        <v>4331.067268682744</v>
       </c>
       <c r="Y34" t="n">
-        <v>266.1532743881928</v>
+        <v>4110.274689539214</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,58 +6928,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4710.268747992121</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4486.483332781627</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4197.354693995185</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>4197.354693995185</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>3907.937523958224</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>3679.947973060207</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916677</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7169,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>3708.486699483612</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>3708.486699483612</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3708.486699483612</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3540.311377803433</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>3858.603338895948</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>3858.603338895948</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>505.7582697485844</v>
+        <v>1089.278254829645</v>
       </c>
       <c r="C43" t="n">
-        <v>505.7582697485844</v>
+        <v>920.3420719017386</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>770.2254324894028</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>622.3123389070097</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>475.4223914090993</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>307.2470697289199</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>156.8290612768632</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>954.5403997901319</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>954.5403997901319</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>954.5403997901319</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X43" t="n">
-        <v>726.5508488921146</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y43" t="n">
-        <v>505.7582697485844</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7640,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7649,16 +7651,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1120.710970609089</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>73.53204524670002</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5789023442195</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>142.0733523581684</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>80.2647294458848</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.08200834921549</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>197.9988345086111</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>113.0824928447104</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24610,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>124.4198406026822</v>
+        <v>145.4017169840569</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>23.61454994042654</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>51.63872478566444</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25123,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>28.09309322362424</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>239.880865761223</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>48.8408432116523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>68.56940431964581</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>51.40339534586043</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>78.81715380066652</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26071,19 +26073,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>164.237394711094</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847841.4164015061</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583909</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="E2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459073</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="F2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459073</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459072</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="L2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="L2" t="n">
-        <v>527889.230645907</v>
-      </c>
       <c r="M2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="O2" t="n">
         <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007483</v>
@@ -26473,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354836</v>
+        <v>-266540.8113354833</v>
       </c>
       <c r="C6" t="n">
+        <v>323427.0678790609</v>
+      </c>
+      <c r="D6" t="n">
         <v>323427.0678790606</v>
       </c>
-      <c r="D6" t="n">
-        <v>323427.0678790611</v>
-      </c>
       <c r="E6" t="n">
-        <v>-97174.86343571323</v>
+        <v>-97174.86343571325</v>
       </c>
       <c r="F6" t="n">
+        <v>427985.1730411833</v>
+      </c>
+      <c r="G6" t="n">
+        <v>427985.1730411831</v>
+      </c>
+      <c r="H6" t="n">
+        <v>427985.1730411833</v>
+      </c>
+      <c r="I6" t="n">
         <v>427985.1730411829</v>
-      </c>
-      <c r="G6" t="n">
-        <v>427985.1730411833</v>
-      </c>
-      <c r="H6" t="n">
-        <v>427985.1730411829</v>
-      </c>
-      <c r="I6" t="n">
-        <v>427985.1730411832</v>
       </c>
       <c r="J6" t="n">
         <v>251561.9538485899</v>
       </c>
       <c r="K6" t="n">
+        <v>427985.1730411829</v>
+      </c>
+      <c r="L6" t="n">
         <v>427985.173041183</v>
       </c>
-      <c r="L6" t="n">
-        <v>427985.1730411829</v>
-      </c>
       <c r="M6" t="n">
-        <v>293184.1578073455</v>
+        <v>293184.157807346</v>
       </c>
       <c r="N6" t="n">
-        <v>427985.1730411829</v>
+        <v>427985.1730411832</v>
       </c>
       <c r="O6" t="n">
         <v>427985.173041183</v>
       </c>
       <c r="P6" t="n">
-        <v>427985.1730411828</v>
+        <v>427985.173041183</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>226.8011102681247</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>312.4499905433821</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>22.82750184132354</v>
       </c>
       <c r="F4" t="n">
-        <v>31.11818237049552</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>289.7542661050684</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>319.3004245523335</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>163.5474481988372</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>33.14692887354673</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>313.1322133414038</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>250.8850709382556</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>83.71149628510267</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-3.632298752070436e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29001,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187824</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36613,7 +36615,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.8253897034981</v>
@@ -36674,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,19 +36685,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>355.8957474878082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262368.986778772</v>
+        <v>2255351.97188706</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>300.8638984122743</v>
       </c>
       <c r="H2" t="n">
-        <v>97.12166249623246</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>140.1425501084454</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>75.51862566593917</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>329.6586928752346</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>192.5627265154904</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>100.6519566793912</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.777345985076</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>62.95369569505517</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365815</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>50.1349129199715</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.8338438389643</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>30.15451601838717</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>117.1501684881975</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>131.7925780239875</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>20.58581884348368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>125.3479015531187</v>
       </c>
       <c r="V28" t="n">
-        <v>106.7359263397712</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>47.27820527287666</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>125.2992784271096</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>12.25677756260502</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>127.6176159584065</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.34442404789031</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>59.01585011841155</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.515311311824</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1878.515311311824</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>1520.249612705074</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.461360106829</v>
+        <v>1249.492510268045</v>
       </c>
       <c r="F2" t="n">
-        <v>723.4754553172218</v>
+        <v>838.5066054784379</v>
       </c>
       <c r="G2" t="n">
-        <v>305.5116472154086</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>325.6879402326643</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D4" t="n">
-        <v>325.6879402326643</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>353.2494858105065</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362306</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2033.097625012799</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.621179645333</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.651480925463</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.651480925463</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>952.3857823187125</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>566.5975297204682</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>155.6116249308606</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733132</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989585</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.251320989585</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>664.5393925952676</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>450.2509694134303</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>438.7118141694743</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>210.7222632714569</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="11">
@@ -5041,22 +5041,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5235,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,55 +5512,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
         <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
         <v>2123.441607278215</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.7290208898085</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C19" t="n">
-        <v>277.7928379619016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>127.6761985495658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>127.6761985495658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>127.6761985495658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>127.6761985495658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>127.6761985495658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1380.582767034471</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247865</v>
+        <v>1091.454128248029</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247865</v>
+        <v>836.769640042142</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878258</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X19" t="n">
-        <v>446.7290208898085</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.7290208898085</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5931,31 +5931,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347412</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609698</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609698</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240092</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X22" t="n">
-        <v>468.5954956259918</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184325</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>948.5968032901133</v>
       </c>
       <c r="V28" t="n">
-        <v>1080.10709002541</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="W28" t="n">
-        <v>790.6899199884497</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X28" t="n">
-        <v>562.7003690904323</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.7003690904323</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1117.347795643215</v>
+        <v>144.9728543621815</v>
       </c>
       <c r="C31" t="n">
-        <v>948.4116127153081</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>798.2949733029724</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>650.3818797205793</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>503.4919322226689</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>335.3166105424895</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.996260473455</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X31" t="n">
-        <v>1298.996260473455</v>
+        <v>326.6213191924212</v>
       </c>
       <c r="Y31" t="n">
-        <v>1298.996260473455</v>
+        <v>326.6213191924212</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3928.626224708974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3759.690041781067</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V34" t="n">
-        <v>4848.473989617722</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W34" t="n">
-        <v>4559.056819580761</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X34" t="n">
-        <v>4331.067268682744</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y34" t="n">
-        <v>4110.274689539214</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,19 +6931,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>226.1237742465551</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3858.603338895948</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C40" t="n">
-        <v>3858.603338895948</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>3708.486699483612</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>3708.486699483612</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>3708.486699483612</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>3540.311377803433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4148.020508932908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>4148.020508932908</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W40" t="n">
-        <v>3858.603338895948</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X40" t="n">
-        <v>3858.603338895948</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y40" t="n">
-        <v>3858.603338895948</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.278254829645</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>920.3420719017386</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>770.2254324894028</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>622.3123389070097</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>475.4223914090993</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
-        <v>307.2470697289199</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>156.8290612768632</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>1270.926719659885</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>1270.926719659885</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776746</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>73.53204524670002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208048</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>96.29904972659767</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>26.60011880760489</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>80.2647294458848</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>104.3973925701918</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>48.03940215794981</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>197.9988345086111</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>160.8894508454586</v>
       </c>
       <c r="V28" t="n">
-        <v>145.4017169840569</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>119.9686158257512</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>23.61454994042654</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>239.880865761223</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>18.81634668816262</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.56940431964581</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>51.40339534586043</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="9">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="L2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="N2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459066</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26432,34 +26432,34 @@
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="L4" t="n">
-        <v>7916.731656007481</v>
-      </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354833</v>
+        <v>-266540.8113354836</v>
       </c>
       <c r="C6" t="n">
-        <v>323427.0678790609</v>
+        <v>323427.0678790607</v>
       </c>
       <c r="D6" t="n">
         <v>323427.0678790606</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571325</v>
+        <v>-98149.45469543444</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411833</v>
+        <v>427010.5817814615</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.1730411831</v>
+        <v>427010.581781461</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.1730411833</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="I6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814612</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.9538485899</v>
+        <v>250587.3625888684</v>
       </c>
       <c r="K6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814615</v>
       </c>
       <c r="L6" t="n">
-        <v>427985.173041183</v>
+        <v>427010.581781461</v>
       </c>
       <c r="M6" t="n">
-        <v>293184.157807346</v>
+        <v>292209.5665476242</v>
       </c>
       <c r="N6" t="n">
-        <v>427985.1730411832</v>
+        <v>427010.5817814609</v>
       </c>
       <c r="O6" t="n">
-        <v>427985.173041183</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="P6" t="n">
-        <v>427985.173041183</v>
+        <v>427010.5817814613</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="H2" t="n">
-        <v>226.8011102681247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>22.82750184132354</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>27.16725215060546</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>289.7542661050684</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>19.58227584217843</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>33.14692887354673</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>313.1322133414038</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339302</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>83.71149628510267</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551327</v>
       </c>
     </row>
     <row r="11">
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.632298752070436e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.666887533699</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187824</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>355.8957474878082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523295</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2255351.97188706</v>
+        <v>2260291.234736092</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800616</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665975</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9929633.291889708</v>
+        <v>9929633.291889707</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>300.8638984122743</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>174.5105150288493</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>140.1425501084454</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>329.6586928752346</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>151.3845250273784</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.777345985076</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>50.1349129199715</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>240.9065083841189</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>119.8338438389643</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>117.1501684881975</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="20">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.7925780239875</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>16.97175332133618</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847138</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384949</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6960756342352</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>125.3479015531187</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.27820527287666</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273247</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T34" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>107.7962182590837</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051903</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014456</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670633</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>127.6176159584065</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>95.02525064967351</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750011</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185606</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>251.0851341348652</v>
       </c>
       <c r="E2" t="n">
-        <v>1249.492510268045</v>
+        <v>251.0851341348652</v>
       </c>
       <c r="F2" t="n">
-        <v>838.5066054784379</v>
+        <v>244.1396333856617</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>230.2162293242527</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="3">
@@ -4412,40 +4412,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>353.2494858105065</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2033.097625012799</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733132</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548717</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694743</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714569</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
@@ -5068,7 +5068,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>613.8011874802282</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C13" t="n">
-        <v>444.8650045523214</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D13" t="n">
-        <v>294.7483651399856</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1144.501259661022</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.231782352015</v>
+        <v>1144.501259661022</v>
       </c>
       <c r="X13" t="n">
-        <v>1016.242231453998</v>
+        <v>916.5117087630043</v>
       </c>
       <c r="Y13" t="n">
-        <v>795.449652310468</v>
+        <v>916.5117087630043</v>
       </c>
     </row>
     <row r="14">
@@ -5266,28 +5266,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,13 +5357,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.6859735286132</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>665.6859735286132</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>515.5693341162774</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286132</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5503,19 +5503,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1380.582767034471</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1091.454128248029</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>836.769640042142</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>836.769640042142</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>836.769640042142</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,7 +5776,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4612303381598</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5946,16 +5946,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240057</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X22" t="n">
-        <v>696.5850465240057</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y22" t="n">
-        <v>696.5850465240057</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6217,19 +6217,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,16 +6244,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6290,40 +6290,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>1027.850635690702</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>858.914452762795</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>708.7978133504593</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.8847197680661</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.9947722701557</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123424</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>948.5968032901133</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>693.9123150842264</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>693.9123150842264</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>465.9227641862091</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6478,7 +6478,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6527,37 +6527,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>144.9728543621815</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
         <v>779.0639759471192</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>554.6108700904385</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X31" t="n">
-        <v>326.6213191924212</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="Y31" t="n">
-        <v>326.6213191924212</v>
+        <v>97.2170914602857</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550594</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610183</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003432</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405188</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155804</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805385</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822377</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141859</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465293</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121722</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851608</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590528</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614716</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701551</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619893</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.76077344195</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.623401105982</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324678</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T34" t="n">
-        <v>1340.085404217832</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="U34" t="n">
-        <v>1050.956765431391</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="V34" t="n">
-        <v>796.2722772255036</v>
+        <v>933.2366688293899</v>
       </c>
       <c r="W34" t="n">
-        <v>506.8551071885429</v>
+        <v>933.2366688293899</v>
       </c>
       <c r="X34" t="n">
-        <v>278.8655562905255</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>824.3515998808206</v>
       </c>
     </row>
     <row r="35">
@@ -6922,46 +6922,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207821</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014284</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701551</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766185</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656579</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320611</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324678</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>545.1765965867977</v>
+        <v>807.0580565471687</v>
       </c>
       <c r="C37" t="n">
-        <v>376.2404136588908</v>
+        <v>638.1218736192618</v>
       </c>
       <c r="D37" t="n">
-        <v>226.1237742465551</v>
+        <v>488.005234206926</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>340.0921406245329</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>193.2021931266226</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028569</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241953</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471176</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520939</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>1209.499100520939</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.8250614170374</v>
+        <v>988.7065213774084</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110137</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555259</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619892</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.76077344195</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.623401105982</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324678</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1354.17636097712</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,46 +7396,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256432</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701553</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619892</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.76077344195</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.623401105982</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324678</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247833</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383415</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>420.3226148324546</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>130.905444795494</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3840174432676</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4478345153607</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>155.4478345153607</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>155.4478345153607</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451747</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297559</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229583</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927815245</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.03744927815262</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544524</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927815205</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>96.03744927815205</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>96.29904972659767</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,7 +23475,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>11.23113493970911</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>26.60011880760489</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>104.3973925701918</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.03940215794981</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.5512450152548</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.048583938740194e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>1.797492829142385</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>160.8894508454586</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>119.9686158257512</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.554934538551606e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>64.30500338171987</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>117.9134371299535</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.81634668816262</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>71.46831781370408</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338818</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>192.3581855871811</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G46" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015052</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015052</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015051</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583912</v>
-      </c>
       <c r="E2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.2306459071</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>527889.2306459072</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459066</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459064</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459064</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459066</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.8367399914423e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,7 +26426,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
@@ -26435,28 +26435,28 @@
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007538</v>
+        <v>7916.731656007444</v>
       </c>
       <c r="J4" t="n">
+        <v>7916.731656007469</v>
+      </c>
+      <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="K4" t="n">
-        <v>7916.731656007486</v>
-      </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007506</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007507</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871651</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871652</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871646</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354836</v>
+        <v>-266540.8113354837</v>
       </c>
       <c r="C6" t="n">
+        <v>323427.0678790609</v>
+      </c>
+      <c r="D6" t="n">
         <v>323427.0678790607</v>
       </c>
-      <c r="D6" t="n">
-        <v>323427.0678790606</v>
-      </c>
       <c r="E6" t="n">
-        <v>-98149.45469543444</v>
+        <v>-97272.3225616853</v>
       </c>
       <c r="F6" t="n">
-        <v>427010.5817814615</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="G6" t="n">
-        <v>427010.581781461</v>
+        <v>427887.7139152109</v>
       </c>
       <c r="H6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.713915211</v>
       </c>
       <c r="I6" t="n">
-        <v>427010.5817814612</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="J6" t="n">
-        <v>250587.3625888684</v>
+        <v>251464.494722618</v>
       </c>
       <c r="K6" t="n">
-        <v>427010.5817814615</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="L6" t="n">
-        <v>427010.581781461</v>
+        <v>427887.7139152114</v>
       </c>
       <c r="M6" t="n">
-        <v>292209.5665476242</v>
+        <v>293086.6986813732</v>
       </c>
       <c r="N6" t="n">
-        <v>427010.5817814609</v>
+        <v>427887.7139152103</v>
       </c>
       <c r="O6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.7139152108</v>
       </c>
       <c r="P6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.7139152099</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26764,19 +26764,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540986</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540986</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,16 +26813,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-5.082010454861562e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545538</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>112.9202716085207</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>149.4122577355078</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>27.16725215060546</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275089</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>19.58227584217843</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>234.8534136286752</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.37316471551327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961198</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041479</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565507</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540874</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104634</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127052</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.747805621573</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358977</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458542</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361475</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081161</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990342</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298621</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337656</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892232</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351798</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355116</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734245</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341713</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490634</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>345.295154234176</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980119</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411073</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714611</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415073</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221104</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095146</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349768</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490634</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560235</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980119</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192599</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714611</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206024</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718745</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330584</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714611</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>345.2951542341756</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714611</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
